--- a/01-Lesson/01-Excel/2/12-Stu_ProductPivot/Unsolved/ProductionPivot_Unsolved.xlsx
+++ b/01-Lesson/01-Excel/2/12-Stu_ProductPivot/Unsolved/ProductionPivot_Unsolved.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/12-Stu_ProductPivot/Unsolved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keatnuxsuo/Documents/Code/MONU-VIRT-DATA-PT-02-2023-U-LOLC/01-Lesson/01-Excel/2/12-Stu_ProductPivot/Unsolved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934CF4B2-5EA3-E64F-919E-3022F9CF9920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA6ABEC-084E-F849-810F-3764A4288029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="880" windowWidth="14680" windowHeight="15120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -195,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,12 +229,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -553,11 +569,11 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -803,7 +819,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -831,370 +847,433 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>10013651</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>204</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" cm="1">
+        <f t="array" ref="D2:D29">A2:A29</f>
+        <v>10013651</v>
+      </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>10013651</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>201</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4">
+        <v>10013651</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>10013651</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>203</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>10013651</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>10013651</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>103</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4">
+        <v>10013651</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>10013651</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>205</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>10013651</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>10013651</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>102</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>10013651</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>10013652</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>109</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>10013652</v>
+      </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>10013652</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>101</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4">
+        <v>10013652</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>10013652</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>105</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4">
+        <v>10013652</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>10013652</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>201</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4">
+        <v>10013652</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>10013652</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>103</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4">
+        <v>10013652</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>10013652</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>107</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>10013652</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>10013653</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>203</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4">
+        <v>10013653</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>10013653</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>201</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <v>10013653</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>10013653</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>206</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>10013653</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>10013653</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>104</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <v>10013653</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>10013653</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>202</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <v>10013653</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>10013653</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>202</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4">
+        <v>10013653</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>10013654</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>206</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4">
+        <v>10013654</v>
+      </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>10013654</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>201</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <v>10013654</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>10013654</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>206</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4">
+        <v>10013654</v>
+      </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>10013654</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>101</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4">
+        <v>10013654</v>
+      </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>10013655</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>103</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4">
+        <v>10013655</v>
+      </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>10013656</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>200</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4">
+        <v>10013656</v>
+      </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>10013656</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>205</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4">
+        <v>10013656</v>
+      </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>10013656</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>200</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4">
+        <v>10013656</v>
+      </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>10013656</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>106</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4">
+        <v>10013656</v>
+      </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>10013656</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>205</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4">
+        <v>10013656</v>
+      </c>
       <c r="E29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>